--- a/biology/Médecine/Syndrome_d'Ehlers-Danlos_type_vasculaire/Syndrome_d'Ehlers-Danlos_type_vasculaire.xlsx
+++ b/biology/Médecine/Syndrome_d'Ehlers-Danlos_type_vasculaire/Syndrome_d'Ehlers-Danlos_type_vasculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ehlers-Danlos_type_vasculaire</t>
+          <t>Syndrome_d'Ehlers-Danlos_type_vasculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome d'Ehlers-Danlos de type vasculaire est, dans le groupe des syndromes d'Ehlers-Danlos, la forme la plus grave de ce groupe de maladies, avec une très forte prévalence féminine et un pronostic vital souvent pessimiste.
 Luxations, entorses, douleurs dorsales et musculaires se rencontrent comme dans les autres formes, mais avec en plus une atteinte des organes et des vaisseaux sanguins. Le patient ou la patiente se reconnaît par une peau fine, translucide, se lésant facilement, une apparence du visage caractéristique souvent appelée « un visage de madone », et une fragilité des vaisseaux sanguins, des intestins et de l'utérus. 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ehlers-Danlos_type_vasculaire</t>
+          <t>Syndrome_d'Ehlers-Danlos_type_vasculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome d'Ehlers-Danlos type 4
 Syndrome de Sack-Barabas</t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ehlers-Danlos_type_vasculaire</t>
+          <t>Syndrome_d'Ehlers-Danlos_type_vasculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène COL3A1 (en) 120180 situé sur le chromosome 2 codant la chaine alpha du collagène
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ehlers-Danlos_type_vasculaire</t>
+          <t>Syndrome_d'Ehlers-Danlos_type_vasculaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévalence aux États-Unis serait estimée à 1 sur 250 000.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ehlers-Danlos_type_vasculaire</t>
+          <t>Syndrome_d'Ehlers-Danlos_type_vasculaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic de S.E.D. de type vasculaire peut être établi lorsque survient une complication ou simplement par un examen clinique : des critères, appelés « critères de Villefranche sur Mer », ont été établis pour aider au diagnostic.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ehlers-Danlos_type_vasculaire</t>
+          <t>Syndrome_d'Ehlers-Danlos_type_vasculaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,9 +659,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome est proche cliniquement du syndrome de Loeys-Dietz, ce dernier ayant un gène COL3AI normal mais une mutation sur les gènes TGFBR1 ou TGFBR2 codant le récepteur du Transforming growth factor bêta[1]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome est proche cliniquement du syndrome de Loeys-Dietz, ce dernier ayant un gène COL3AI normal mais une mutation sur les gènes TGFBR1 ou TGFBR2 codant le récepteur du Transforming growth factor bêta. 
 </t>
         </is>
       </c>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ehlers-Danlos_type_vasculaire</t>
+          <t>Syndrome_d'Ehlers-Danlos_type_vasculaire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,9 +692,11 @@
           <t>Traitement et prise en charge</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le céliprolol, un bêta-bloquant, diminuerait de façon importante le risque de complications vasculaires[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le céliprolol, un bêta-bloquant, diminuerait de façon importante le risque de complications vasculaires.
 </t>
         </is>
       </c>
@@ -683,7 +707,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ehlers-Danlos_type_vasculaire</t>
+          <t>Syndrome_d'Ehlers-Danlos_type_vasculaire</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -701,10 +725,12 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La surveillance des vaisseaux sanguins au niveau du cerveau, des poumons et surtout du cœur nécessitent une vigilance constante. Vingt-cinq (25 %) des malades ont une complication significative de ce syndrome à 20 ans et 80 % à 40 ans. L'espérance de vie est fortement réduite en l'absence de traitement préventif. Le risque de décès avant 48 ans est de 50 %.
-Une étude récente de la cohorte de patients suivis par l'AP-HP montre cependant que les malades traités par céliprolol ont une espérance de vie qui se rapproche de celle de la population générale[3].
+Une étude récente de la cohorte de patients suivis par l'AP-HP montre cependant que les malades traités par céliprolol ont une espérance de vie qui se rapproche de celle de la population générale.
 </t>
         </is>
       </c>
@@ -715,7 +741,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Ehlers-Danlos_type_vasculaire</t>
+          <t>Syndrome_d'Ehlers-Danlos_type_vasculaire</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -735,8 +761,13 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode de transmission
-Transmission autosomique dominante
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique dominante
 </t>
         </is>
       </c>
